--- a/Docs/02_基本設計/データ定義/データ定義（ローン情報）.xlsx
+++ b/Docs/02_基本設計/データ定義/データ定義（ローン情報）.xlsx
@@ -7,26 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="画面レイアウト（ローン情報登録画面）" sheetId="1" r:id="rId1"/>
-    <sheet name="ローン情報登録" sheetId="2" r:id="rId2"/>
-    <sheet name="リスト" sheetId="3" r:id="rId3"/>
+    <sheet name="データ定義（ローン情報）" sheetId="1" r:id="rId1"/>
+    <sheet name="リスト" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
-  <si>
-    <t>画面レイアウト</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -72,13 +61,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面タイトル</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -93,13 +75,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面レイアウト</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ラベル</t>
   </si>
   <si>
@@ -107,20 +82,6 @@
   </si>
   <si>
     <t>ボタン</t>
-  </si>
-  <si>
-    <t>ローン情報登録</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ローン情報登録</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ローン</t>
@@ -277,6 +238,60 @@
   <si>
     <t>remaining</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ定義</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローン情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>項目名</t>
+  </si>
+  <si>
+    <t>項目ID</t>
+  </si>
+  <si>
+    <t>桁数</t>
+  </si>
+  <si>
+    <t>フォーマット</t>
+  </si>
+  <si>
+    <t>繰り返し</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ローン</t>
+  </si>
+  <si>
+    <t>loan</t>
+  </si>
+  <si>
+    <t>残額</t>
+  </si>
+  <si>
+    <t>remaining</t>
   </si>
 </sst>
 </file>
@@ -426,21 +441,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -531,17 +531,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -609,6 +598,28 @@
       <top style="double">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -618,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -630,31 +641,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -672,32 +698,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -712,184 +722,20 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>2238375</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="3" name="図 2"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ローン情報登録!$D$1:$P$25" spid="_x0000_s1044"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="895350" y="895350"/>
-              <a:ext cx="2057400" cy="4295775"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:extLst/>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>162582</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>40144</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>10125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="3322"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="504168" y="0"/>
-          <a:ext cx="2268666" cy="4279953"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>10584</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>132292</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1873250" y="1703917"/>
-          <a:ext cx="640292" cy="291042"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="画面レイアウト（お小遣い情報一覧画面）"/>
-      <sheetName val="お小遣い情報一覧"/>
-      <sheetName val="リスト"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B5:H7" totalsRowShown="0">
+  <autoFilter ref="B5:H7"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="項目名"/>
+    <tableColumn id="3" name="項目ID"/>
+    <tableColumn id="4" name="桁数"/>
+    <tableColumn id="5" name="フォーマット"/>
+    <tableColumn id="6" name="繰り返し"/>
+    <tableColumn id="7" name="備考"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1178,59 +1024,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="41.375" customWidth="1"/>
+    <col min="9" max="9" width="4.375" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1240,16 +1083,11 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1257,116 +1095,110 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100</v>
+      </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="D9" s="24"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1374,12 +1206,9 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1387,12 +1216,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1400,12 +1226,9 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1413,12 +1236,9 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1426,12 +1246,9 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1439,12 +1256,9 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1452,12 +1266,9 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1465,12 +1276,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1480,12 +1288,9 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1495,12 +1300,9 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1510,12 +1312,9 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1525,12 +1324,9 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1540,12 +1336,9 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1555,12 +1348,9 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1570,12 +1360,9 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1585,12 +1372,9 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1600,12 +1384,9 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1615,12 +1396,9 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1630,12 +1408,9 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1645,12 +1420,9 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1660,12 +1432,9 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1675,12 +1444,9 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1690,12 +1456,9 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1705,12 +1468,9 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1720,12 +1480,9 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1735,12 +1492,9 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1750,50 +1504,41 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="34" t="str">
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="42" t="str">
         <f t="shared" ref="E40" si="0">$E$1</f>
-        <v>ローン情報登録</v>
-      </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
+        <v>ローン情報</v>
+      </c>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="10"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="12"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="11"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1802,15 +1547,12 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="B43" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1819,232 +1561,203 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="5"/>
+      <c r="B45" s="15">
+        <v>1</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="35"/>
+      <c r="F45" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="5"/>
+      <c r="B46" s="21">
+        <v>2</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="E46" s="33"/>
+      <c r="F46" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="5"/>
+      <c r="B47" s="21">
         <v>3</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="C47" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="33"/>
+      <c r="F47" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="5"/>
+      <c r="B48" s="14">
         <v>4</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="19" t="s">
+      <c r="C48" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="33"/>
+      <c r="F48" s="20">
+        <v>100</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" s="5"/>
+      <c r="B49" s="14">
+        <v>5</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="33"/>
+      <c r="F49" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="5"/>
+      <c r="B50" s="14">
+        <v>6</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="33"/>
+      <c r="F50" s="20">
+        <v>10</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="5"/>
+      <c r="B51" s="14">
+        <v>7</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K44" s="20"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:13" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="17">
-        <v>1</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="24">
-        <v>2</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
-      <c r="B47" s="24">
-        <v>3</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="15">
-        <v>4</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="23">
-        <v>100</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="23"/>
-      <c r="I48" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-      <c r="B49" s="15">
-        <v>5</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="15">
-        <v>6</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="23">
+      <c r="E51" s="33"/>
+      <c r="F51" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="23"/>
-      <c r="I50" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
-      <c r="B51" s="15">
-        <v>7</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="23"/>
-      <c r="I51" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H51" s="20"/>
+      <c r="I51" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="5"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2054,12 +1767,9 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="5"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2069,12 +1779,9 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="5"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2084,12 +1791,9 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="5"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2099,12 +1803,9 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="5"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2114,12 +1815,9 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="5"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2129,12 +1827,9 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="5"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2144,12 +1839,9 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="5"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2159,12 +1851,9 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2174,12 +1863,9 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="5"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2189,12 +1875,9 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="5"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2204,12 +1887,9 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="5"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2219,12 +1899,9 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="4"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2234,12 +1911,9 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="4"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="5"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2249,12 +1923,9 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="4"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="5"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2264,12 +1935,9 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="4"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="5"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2279,12 +1947,9 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="5"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2294,12 +1959,9 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="4"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="5"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2309,12 +1971,9 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="4"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="5"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2324,12 +1983,9 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="4"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="5"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2339,12 +1995,9 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="4"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2354,12 +2007,9 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="4"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="5"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2369,12 +2019,9 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="4"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="5"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2384,12 +2031,9 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="4"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="5"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2399,12 +2043,9 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="4"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="5"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2414,12 +2055,9 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="4"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="5"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2429,12 +2067,9 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="4"/>
-    </row>
-    <row r="78" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -2444,13 +2079,14 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="8"/>
+      <c r="J78" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="11">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A40:C41"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="E41:H41"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D45:E45"/>
@@ -2458,21 +2094,16 @@
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D49:E49"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A40:C41"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E41:H41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>リスト!$A$2:$A$6</xm:f>
@@ -2483,7 +2114,7 @@
           <x14:formula1>
             <xm:f>リスト!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H45:H51</xm:sqref>
+          <xm:sqref>H45:H51 F6:F7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2493,70 +2124,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:O12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="5" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-    </row>
-    <row r="9" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-    </row>
-    <row r="11" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H7:O7"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2564,72 +2131,72 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="A1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
